--- a/server/src/main/java/net/guides/springboot2/crud/templates/Lista Angajati.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/templates/Lista Angajati.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>[den. Firma]</t>
   </si>
@@ -22,9 +22,6 @@
     <t>CUI: [cif]</t>
   </si>
   <si>
-    <t>STAT DE SALARII</t>
-  </si>
-  <si>
     <t>-[luna] [an]-</t>
   </si>
   <si>
@@ -32,26 +29,46 @@
   </si>
   <si>
     <t>[județ/sector]</t>
+  </si>
+  <si>
+    <t>LISTA ANGAJATI</t>
+  </si>
+  <si>
+    <t>[data]</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Nume si prenume</t>
+  </si>
+  <si>
+    <t>CNP</t>
+  </si>
+  <si>
+    <t>Data angajarii</t>
+  </si>
+  <si>
+    <t>Meserie</t>
+  </si>
+  <si>
+    <t>Salariu</t>
+  </si>
+  <si>
+    <t>Venit net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -73,6 +90,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -90,41 +128,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,219 +549,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:N4"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="5" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="H6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="H7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="14">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="L4:N4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>